--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>8647174269.390013</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004844851979834737</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.447280868447107</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.8969597197007446</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.447280868447107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6130768177.208622</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.006081999747951779</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
         <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.878200540954315</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.923091993915404</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.878200540954315</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4526515036.12577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003702487254142703</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6.02318690218516</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9928542656548993</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-6.02318690218516</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3470779318.861835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003939017741118817</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9306800919951127</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.077199705194541</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9751839499777362</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.077199705194541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7912554401.458649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002106534106442806</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.899733063441019</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8128737533108824</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.899733063441019</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>5838351207.942641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001005907209023242</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6.035001706140412</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9876789715233623</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-6.035001706140412</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5063273671.486188</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002784879431801483</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.251599475464868</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9440263951159891</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.251599475464868</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6159513749.830122</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004747758539170524</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>5.93406467376717</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9398197552894391</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-5.93406467376717</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3649060138.162388</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004191858069395648</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.874763416976001</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9515240448023722</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.874763416976001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4407364570.775385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009605079138221913</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.901572081986115</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7164521052690596</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.901572081986115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>9224900259.396265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001907536826997617</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.996126179513661</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9759852873991532</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.996126179513661</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6327276576.765859</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002938859058966403</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>3.09301735684474</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.9903706487210648</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-3.09301735684474</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>6544006937.685688</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002516050074529845</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.318614939031864</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8416209534504229</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.318614939031864</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6128286702.532697</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003874247903751488</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>4.164461195703923</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9749345171916272</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-4.164461195703923</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7073235922.590899</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003605132313547383</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.97286264701378</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9028839337854329</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.97286264701378</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5191800878.892597</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003071672519636469</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.9545718016730775</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.905750144500788</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.163263403532316</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.905750144500788</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>7365201483.877067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008204480742949748</v>
       </c>
       <c r="G18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.45490279357473</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9908568320940393</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.45490279357473</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2885654885.947703</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001874916283498856</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>7</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9762827621564132</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1894154739636071</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.333856695868222</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.104830120958281</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-3.333856695868222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5951178811.737543</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001090511131937043</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.28020131302612</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8271269705880088</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-4.28020131302612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5324687093.948385</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004105743329138109</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.122273133529901</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.7860356276589708</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.122273133529901</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4759669501.321423</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003798487259877463</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
         <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6.169814808748525</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8882356813747235</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-6.169814808748525</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6910144479.149433</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001383742358888752</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>3.05996490635031</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8403203289131373</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-3.05996490635031</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5192237024.848895</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003401110707195694</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.3554557935412214</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.449972552691671</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.673795976204435</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.449972552691671</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5018088727.439235</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003861924299649099</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.964198458227735</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9186397311236706</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.964198458227735</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4182249021.808526</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001248512711355366</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.956303761553392</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7782607552715167</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.956303761553392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6772559486.21498</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003902075949471022</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.1066198771436957</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.603744125788567</v>
-      </c>
-      <c r="M27" t="n">
-        <v>-0.2341071308835893</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.603744125788567</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8949728657.237587</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.00505738507983885</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
         <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.354552285588285</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.860886359407433</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.354552285588285</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5574958551.49466</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001149943383963903</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.091746968868383</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.008152524796719</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.091746968868383</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8793645066.208548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003263134128668705</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.449837799872338</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8763061786904951</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.449837799872338</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7443982740.284965</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002378533958422091</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.401041820137027</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9372690153555348</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.401041820137027</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4384911128.021816</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001351848190718387</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.190946408370062</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9341298160909338</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-4.190946408370062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5207957223.163598</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003207875295337731</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.437093711737654</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.851550581957894</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.437093711737654</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6171803965.907269</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.003750480986617335</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.133620120402544</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8020456738924189</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.133620120402544</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6277614758.718933</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001731071796119414</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.3369331799855</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9461954192932678</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.3369331799855</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7009383831.106352</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002777879093513527</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.576297610129493</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9925770348201765</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.576297610129493</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5250261469.819729</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004528353435356872</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.501098495809944</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9852521431099142</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.501098495809944</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4720091535.3175</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004672426512003758</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.822039514802055</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9096698347947333</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.822039514802055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6360171896.413628</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002872361118270137</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>6.260515104562195</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.9143915458105244</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-6.260515104562195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6333204488.134068</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003111909669732161</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4.094170102104036</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9843510697322884</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-4.094170102104036</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>7099101810.280927</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001096738779387766</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.924847564172854</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9119205805065211</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.924847564172854</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6839806397.712419</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.0049258614826683</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.24079564794224</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9988914815376048</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.24079564794224</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6443431462.8876</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.005123988747503398</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>4</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.462658868064869</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9396733267705024</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-4.462658868064869</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5763418919.519407</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001974701217155211</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>4.02401663420104</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.954750183587768</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-4.02401663420104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4090453747.488092</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00136075600339641</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3199816452098291</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>4.625822859241666</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6064807381399455</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-4.625822859241666</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9432711722.357567</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.003461687187145945</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>7</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.35287173153177</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7862106710911458</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.35287173153177</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8539109550.06046</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002407546771279404</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.821017294185411</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8983315224660168</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.821017294185411</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7580525793.850032</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003626948425992235</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.114042856370212</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.98143259592385</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.114042856370212</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5374755826.767027</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005028008961757072</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.459866864530933</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8501032926311689</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.459866864530933</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7643787894.706664</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003147218528565731</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.059406824307207</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.017261632484696</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.059406824307207</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>4756653260.869242</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005338285863673893</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.395518860070247</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9284791111716197</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.395518860070247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6549274667.992147</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001495297867345436</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.8066845425758585</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.512319751434003</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9269936108338882</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.512319751434003</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5014700653.412819</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003335502789401919</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>5</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.91891059833181</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9208685532771997</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.91891059833181</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6542106141.947412</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004687720920442128</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.8436434321113091</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.876464181760503</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.9101250739180389</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.876464181760503</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8986438693.42062</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003204749365312661</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.894947077937942</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9175232897267694</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.894947077937942</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6212474465.462677</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002159254647411422</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
         <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.219016348156048</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5.022229654061825</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.173700553258164</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-5.022229654061825</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7210793915.913989</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004595630009819609</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.944011871057382</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.873026592189416</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.944011871057382</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7111035634.56816</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002074555203264318</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>8</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.976553846305815</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7782607552715167</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.976553846305815</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5212778252.087904</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.00439862160748858</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>8</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.8987326068014599</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3.086989502058386</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.003171257529307</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-3.086989502058386</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4232118950.465952</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003838315166524332</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>5</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.781934824127763</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8405659238080141</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.781934824127763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6360093100.005235</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003708671399416668</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.999610216278108</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9306843700728589</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.999610216278108</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6465616558.786656</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003475498632002883</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>4.485134949821677</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.876384689793995</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-4.485134949821677</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7684336538.880302</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.006079081834408998</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.541903641146742</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9107203583149084</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.541903641146742</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4729051667.8722</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003540155876682288</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.9977085513134486</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.302470052902926</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1.1273175168606</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.302470052902926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5759483339.677828</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004770061431816791</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>5.437110647219294</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.046073760666803</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-5.437110647219294</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5130039888.931592</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003824770571614608</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>6</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.9935799615331863</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.615989700861664</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1.118438176415479</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.615989700861664</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5871738706.554077</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004643651357974576</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>8.590795535114175</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9474959403512165</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-8.590795535114175</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5701711217.680246</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.001959254475386503</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.770616939097756</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7517334980693604</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.770616939097756</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5286849229.918003</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.000961316690935882</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.175479083128882</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.976734722899925</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.3143767758922734</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.976734722899925</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5304932359.307788</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003771093436833889</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.803213305905777</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9154366508740612</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.803213305905777</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4079545729.991532</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.00356191627856395</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6.019123352931211</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8541156489826532</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-6.019123352931211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5419497608.756077</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002461243337845689</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4484989363171532</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>4.983428805467994</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.8614535106544506</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-4.983428805467994</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5677761592.07481</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001337566682593295</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>4.967900149594272</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9803174823697227</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-4.967900149594272</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5152375752.869987</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003313165188700315</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.9011547501335775</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.515845838861588</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.018664592132099</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.515845838861588</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6087003843.427009</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003875283069312717</v>
       </c>
       <c r="G75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>8</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.207771891980329</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8105177440341487</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.207771891980329</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6660086067.331387</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002441928511341245</v>
       </c>
       <c r="G76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.416974887246505</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8981783302149713</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.416974887246505</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5048710975.429923</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004415916832262069</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.105628434531035</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.017329265586913</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.105628434531035</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7414480994.581002</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.003448675995805682</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>3.940522012257877</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9253100918322404</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-3.940522012257877</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7083870837.100133</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002579785996303438</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.266167015196002</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9548222445853758</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.266167015196002</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5736160315.247953</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002165694118331785</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.62497171523763</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9448931082408684</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.62497171523763</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7763815977.236466</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003541854248681813</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>8.42889171324866</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.01940981804653</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-8.42889171324866</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8212876132.947603</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005552423667421749</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.934877105503747</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.065630327964687</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.13039929929577</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.065630327964687</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10566092606.37756</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002423126905289813</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>9</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8818405611992702</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.886558799686691</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.9428212967119143</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.886558799686691</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5576167190.926123</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00553289532592776</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.301002966507374</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9306843700728589</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.301002966507374</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4355969346.886443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.00274435839445632</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>6</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.520291762649807</v>
-      </c>
-      <c r="M85" t="n">
-        <v>-0.4714045207910317</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.520291762649807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5660775454.608855</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002254803348455244</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.591376353135364</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9578218033101608</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.591376353135364</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3701639238.376569</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001374179584462007</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.312829699981036</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9695216652471622</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.312829699981036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9080343799.868931</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003618445121298236</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.837254071457367</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8466409595022573</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.837254071457367</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7343906502.152984</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00527396288883103</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.009386046186812</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9428670428928854</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.009386046186812</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7168809530.536214</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003518621792045292</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>6</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.06895853120936754</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.509138191366764</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.3369363124072335</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.509138191366764</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7047369689.216398</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004354078785972802</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>5.933292668365137</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8565123925857302</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-5.933292668365137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5058436458.315599</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003924175717466444</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.401353513217687</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9986848225570739</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.401353513217687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>8239555524.131816</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001592042977250544</v>
       </c>
       <c r="G93" t="b">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>6</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.596971475250481</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.911845129096587</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.596971475250481</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6863428869.325211</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001366315175296174</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.118767524810261</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.047118850397463</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.118767524810261</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>6436396493.849172</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002500231980042832</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.837866426307581</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.907413506357275</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.837866426307581</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9504299808.478193</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002130126591237094</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>9</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693103</v>
-      </c>
-      <c r="L96" t="n">
-        <v>3.007283954109203</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.8713781200471211</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-3.007283954109203</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6451236554.035629</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005816198364915158</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.044986096035485</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8891567786350273</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.044986096035485</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>7080924861.388319</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003752238787905719</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.720553028410989</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8598549684651505</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.720553028410989</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2383333854.018386</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004848369564957573</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>6</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.62832237228131</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8971131200433957</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.62832237228131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5371064797.180681</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.00247328776101202</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>6</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.678877691531995</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.511499712693428</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7966583786638168</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.511499712693428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5968770260.233663</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001520693119057494</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.9828037970932905</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.612437220852637</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.087681529251466</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.612437220852637</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>8647174269.390013</v>
+        <v>2051600659.708031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004844851979834737</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+        <v>0.08984439760085514</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03248201040227426</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1025800332.235258</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2054389315.103858</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1588261814891243</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03461545451731304</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>6130768177.208622</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.006081999747951779</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+      <c r="J3" t="n">
+        <v>1027194705.79692</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4526515036.12577</v>
+        <v>3585704380.720738</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003702487254142703</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1073148503035839</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03622193286241618</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1792852174.957806</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3470779318.861835</v>
+        <v>4203049163.137305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003939017741118817</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1080586013048924</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04556886551834363</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2101524571.734858</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7912554401.458649</v>
+        <v>2287116009.578659</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002106534106442806</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+        <v>0.09771325327818846</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05437000145326117</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1143558003.105803</v>
       </c>
     </row>
     <row r="7">
@@ -623,19 +663,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>5838351207.942641</v>
+        <v>3022889466.053853</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001005907209023242</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
+        <v>0.08941840990336118</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03210975446244016</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1511444695.452906</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5063273671.486188</v>
+        <v>3522890839.511158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002784879431801483</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.177258027066386</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.020834727861713</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1761445530.508858</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6159513749.830122</v>
+        <v>1763129129.922127</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004747758539170524</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+        <v>0.1815531185076947</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02916718808335834</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>881564624.2379392</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3649060138.162388</v>
+        <v>4616663038.981948</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004191858069395648</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1978178550599119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04684210575819626</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>12</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2308331588.917464</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4407364570.775385</v>
+        <v>3953395303.750782</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009605079138221913</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1161088635253091</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03689945349786734</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1976697661.145047</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>9224900259.396265</v>
+        <v>2972829370.061578</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001907536826997617</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+        <v>0.1440242765122285</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04597500513672725</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1486414700.350989</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6327276576.765859</v>
+        <v>4293249366.832125</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002938859058966403</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
+        <v>0.09558706712285492</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02147981120274723</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2146624723.237002</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>6544006937.685688</v>
+        <v>3824535661.979661</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002516050074529845</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
+        <v>0.1408766238071525</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03342822212108462</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1912267805.506386</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6128286702.532697</v>
+        <v>1689982922.531029</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003874247903751488</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
+        <v>0.09150494464398115</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04191628947051668</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>844991589.6361196</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7073235922.590899</v>
+        <v>2080993043.684424</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003605132313547383</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
+        <v>0.09096100417313295</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04478131163719822</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1040496589.865857</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5191800878.892597</v>
+        <v>3516549831.397347</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003071672519636469</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+        <v>0.1269888158243306</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04820261086439818</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1758274973.902072</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>7365201483.877067</v>
+        <v>2473462397.06936</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008204480742949748</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
+        <v>0.131828831705588</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03273711426275167</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1236731266.712595</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2885654885.947703</v>
+        <v>1148503427.276768</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001874916283498856</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1516057295244816</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02723866520435513</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>574251778.8390027</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5951178811.737543</v>
+        <v>2371711411.363837</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001090511131937043</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1067167655798813</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02694546169412693</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1185855692.2237</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5324687093.948385</v>
+        <v>2224219206.154849</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004105743329138109</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>0.07630583958535536</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03572414932170085</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1112109617.392185</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3064482653.329908</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1200683810214517</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03499903994549884</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>4759669501.321423</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.003798487259877463</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+      <c r="I22" t="n">
+        <v>7</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1532241384.137734</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6910144479.149433</v>
+        <v>1023501453.585334</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001383742358888752</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
+        <v>0.1193271731523804</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03870160108222677</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>511750792.7893471</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5192237024.848895</v>
+        <v>2719637061.802651</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003401110707195694</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
+        <v>0.1199346921442386</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02917151961153673</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1359818584.800638</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5018088727.439235</v>
+        <v>1384093693.902815</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003861924299649099</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>5</v>
+        <v>0.0948953409932566</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.03010876606702034</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>692046822.2962834</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4182249021.808526</v>
+        <v>1376457215.093977</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001248512711355366</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1172453061515745</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0313007969132058</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>688228671.5458322</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6772559486.21498</v>
+        <v>4639457043.880729</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003902075949471022</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
+        <v>0.1550798909818082</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02391239936459189</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2319728500.08097</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8949728657.237587</v>
+        <v>2661290331.399495</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00505738507983885</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
+        <v>0.09653169898317378</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03309158884051497</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1330645147.32277</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5574958551.49466</v>
+        <v>4080689307.945938</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001149943383963903</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1157176431091212</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03124572701396796</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2040344665.102856</v>
       </c>
     </row>
     <row r="30">
@@ -1267,19 +1445,25 @@
         <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8793645066.208548</v>
+        <v>1597757024.438646</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003263134128668705</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
+        <v>0.08466366361884664</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0341586420684088</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>798878503.6535836</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7443982740.284965</v>
+        <v>1333893682.928801</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002378533958422091</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5</v>
+        <v>0.07440636452730048</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04330985750146638</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>666946761.1960754</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4384911128.021816</v>
+        <v>1196868033.287064</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001351848190718387</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07798252293271407</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03378422886639149</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>598434021.9347045</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5207957223.163598</v>
+        <v>2275519147.959989</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003207875295337731</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
+        <v>0.1464371225125914</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04600537379252871</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1137759631.093436</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6171803965.907269</v>
+        <v>1308532498.636014</v>
       </c>
       <c r="F34" t="n">
-        <v>0.003750480986617335</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
+        <v>0.1166587048410551</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02444013510225211</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>654266236.3180275</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6277614758.718933</v>
+        <v>1000813462.837734</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001731071796119414</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
+        <v>0.1008798949549249</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04007115325113361</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>500406749.6154515</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7009383831.106352</v>
+        <v>2185159527.481872</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002777879093513527</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
+        <v>0.1333792897821496</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0288916012997059</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1092579810.755855</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5250261469.819729</v>
+        <v>2534554411.258294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004528353435356872</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
+        <v>0.0685906711352712</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03301902290508251</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>5</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1267277306.231847</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4720091535.3175</v>
+        <v>1935094574.378734</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004672426512003758</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.079280704654263</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03924321501819732</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>967547274.7818086</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6360171896.413628</v>
+        <v>2186461269.439178</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002872361118270137</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1823278733970037</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02228986420065759</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1093230600.759787</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6333204488.134068</v>
+        <v>1265999701.14169</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003111909669732161</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>7</v>
+        <v>0.1278621297717367</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04691820546234274</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>632999875.1381379</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>7099101810.280927</v>
+        <v>2725054143.5691</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001096738779387766</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1115154212180074</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03459458305083009</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>7</v>
+      <c r="I41" t="n">
+        <v>8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1362527074.895714</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6839806397.712419</v>
+        <v>3648769631.486863</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0049258614826683</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>7</v>
+        <v>0.08810852972949364</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.02964170297785908</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1824384820.626707</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6443431462.8876</v>
+        <v>2517081527.179778</v>
       </c>
       <c r="F43" t="n">
-        <v>0.005123988747503398</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.176543317971815</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01591825139373977</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1258540810.319915</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5763418919.519407</v>
+        <v>1603890818.692324</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001974701217155211</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
+        <v>0.06772627903804734</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02238558869810076</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>801945436.4591306</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4090453747.488092</v>
+        <v>2521533224.091708</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00136075600339641</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.171292582901644</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04572150019203219</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1260766655.235918</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9432711722.357567</v>
+        <v>5303152208.129255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.003461687187145945</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+        <v>0.1158097585077389</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.05601728251675907</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2651576148.014094</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8539109550.06046</v>
+        <v>4707288822.110427</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002407546771279404</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.1874114462085688</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05670938128060531</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2353644450.089777</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7580525793.850032</v>
+        <v>3439471144.894159</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003626948425992235</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>5</v>
+        <v>0.0993562600874555</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02377947295888141</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1719735639.16618</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5374755826.767027</v>
+        <v>1946729593.034514</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005028008961757072</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1231450661754296</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.039549074399816</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>973364758.7965971</v>
       </c>
     </row>
     <row r="50">
@@ -1827,19 +2125,25 @@
         <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7643787894.706664</v>
+        <v>2950465651.793128</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003147218528565731</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
+        <v>0.1278380212771829</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03983902676486533</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>9</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1475232889.061832</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>4756653260.869242</v>
+        <v>1308984862.634353</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005338285863673893</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1297116393577385</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03291370803699439</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>654492465.0133957</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6549274667.992147</v>
+        <v>3474265306.887084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001495297867345436</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>7</v>
+        <v>0.09270696966757216</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05692941238438095</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1737132740.656381</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5014700653.412819</v>
+        <v>2441558707.866726</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003335502789401919</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
+        <v>0.1530413335350563</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03240404442121526</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1220779424.713373</v>
       </c>
     </row>
     <row r="54">
@@ -1939,19 +2261,25 @@
         <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6542106141.947412</v>
+        <v>3500004777.709527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004687720920442128</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
+        <v>0.137539406098309</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04616791667587634</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>9</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1750002413.470601</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8986438693.42062</v>
+        <v>3978003898.399203</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003204749365312661</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9</v>
+        <v>0.1583357178661823</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02539633246384103</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>7</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1989001922.961852</v>
       </c>
     </row>
     <row r="56">
@@ -1995,19 +2329,25 @@
         <v>4</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6212474465.462677</v>
+        <v>1283245327.835192</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002159254647411422</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
+        <v>0.116766752550732</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05002650184069653</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>641622738.0068346</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7210793915.913989</v>
+        <v>3957788523.335163</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004595630009819609</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.1370204839451557</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02442342040235634</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>8</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1978894346.254127</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7111035634.56816</v>
+        <v>1758763924.10959</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002074555203264318</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4</v>
+        <v>0.1603858539408646</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02691514507964813</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>879381969.3811208</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5212778252.087904</v>
+        <v>4199312972.965423</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00439862160748858</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3</v>
+        <v>0.1041111423164674</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03626087595943898</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>7</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2099656452.596678</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4232118950.465952</v>
+        <v>3487152627.858385</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003838315166524332</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1280214575630758</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02323698524713975</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1743576435.106318</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6360093100.005235</v>
+        <v>2660579554.657647</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003708671399416668</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>6</v>
+        <v>0.1104249889710881</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02232344943087729</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1330289789.598419</v>
       </c>
     </row>
     <row r="62">
@@ -2163,19 +2533,25 @@
         <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6465616558.786656</v>
+        <v>2014086384.71422</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003475498632002883</v>
-      </c>
-      <c r="G62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" t="n">
-        <v>4</v>
+        <v>0.1818934471280189</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03183838050724262</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1007043252.347652</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7684336538.880302</v>
+        <v>4165616822.41339</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006079081834408998</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.1007416391412175</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03539675043255516</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>6</v>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2082808465.981283</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4729051667.8722</v>
+        <v>4299390365.243358</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003540155876682288</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1215927025848899</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03187873616753144</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>8</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2149695239.314318</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5759483339.677828</v>
+        <v>5883441733.789362</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004770061431816791</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1367990377970355</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02042757103137301</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2941720772.845529</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5130039888.931592</v>
+        <v>5731616418.34681</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003824770571614608</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5</v>
+        <v>0.1543640731280777</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.040141493093171</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>8</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2865808275.321729</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5871738706.554077</v>
+        <v>2665282089.906038</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004643651357974576</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>4</v>
+        <v>0.08203668936985788</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04446631290709144</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1332641091.313244</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5701711217.680246</v>
+        <v>5255854687.201991</v>
       </c>
       <c r="F68" t="n">
-        <v>0.001959254475386503</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>6</v>
+        <v>0.11834307516179</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04781425210607659</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2627927415.263499</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5286849229.918003</v>
+        <v>2278174136.072719</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000961316690935882</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4</v>
+        <v>0.1597283897783742</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04117997366529668</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1139087108.735947</v>
       </c>
     </row>
     <row r="70">
@@ -2387,19 +2805,25 @@
         <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5304932359.307788</v>
+        <v>3332222829.709736</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003771093436833889</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>6</v>
+        <v>0.06628376835574039</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04271861583807345</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>8</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1666111413.23564</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4079545729.991532</v>
+        <v>4007813024.694338</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00356191627856395</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1363277950241863</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02530236750389612</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2003906543.766093</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5419497608.756077</v>
+        <v>1664656637.810874</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002461243337845689</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5</v>
+        <v>0.07536445927041303</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04430583132288279</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>832328319.143626</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5677761592.07481</v>
+        <v>2937804488.254175</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001337566682593295</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+        <v>0.0886852617700107</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03573335709936504</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1468902245.577679</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5152375752.869987</v>
+        <v>3864170769.241961</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003313165188700315</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>7</v>
+        <v>0.1445608192566804</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03063051773084648</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1932085375.105462</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6087003843.427009</v>
+        <v>2064158120.070689</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003875283069312717</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>5</v>
+        <v>0.1114120483142171</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03214472124162231</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1032079017.939816</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6660086067.331387</v>
+        <v>3642301035.675941</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002441928511341245</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>5</v>
+        <v>0.1197364334543666</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02155206606241753</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>6</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1821150487.348505</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5048710975.429923</v>
+        <v>1922156914.883578</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004415916832262069</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>9</v>
+        <v>0.1420825909268307</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02346050381127483</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>961078507.2485009</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7414480994.581002</v>
+        <v>3790407867.909734</v>
       </c>
       <c r="F78" t="n">
-        <v>0.003448675995805682</v>
-      </c>
-      <c r="G78" t="b">
+        <v>0.1207449568777429</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05415258208745869</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="H78" t="n">
-        <v>5</v>
+      <c r="I78" t="n">
+        <v>9</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1895203914.48824</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7083870837.100133</v>
+        <v>1691470367.328607</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002579785996303438</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1324976164267458</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03687033987981891</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>845735251.1114503</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5736160315.247953</v>
+        <v>5169523879.63688</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002165694118331785</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>9</v>
+        <v>0.08095645733839779</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03791871586273803</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2584761997.203499</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7763815977.236466</v>
+        <v>4079391835.284186</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003541854248681813</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
+        <v>0.08929610773048406</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02040662022819438</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>6</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2039695883.59413</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8212876132.947603</v>
+        <v>5399692554.550296</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005552423667421749</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.1449191022463494</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02292009448574622</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>9</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2699846238.679931</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10566092606.37756</v>
+        <v>2000291781.151769</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002423126905289813</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.140399492227451</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03650193870822063</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1000145875.745472</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5576167190.926123</v>
+        <v>1997685046.912393</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00553289532592776</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>7</v>
+        <v>0.1183907817329914</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04523057335201517</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>998842528.5841918</v>
       </c>
     </row>
     <row r="85">
@@ -2807,19 +3315,25 @@
         <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4355969346.886443</v>
+        <v>2789966916.277613</v>
       </c>
       <c r="F85" t="n">
-        <v>0.00274435839445632</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1759254421541996</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04721015348122449</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>10</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1394983494.886245</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5660775454.608855</v>
+        <v>1906789321.92568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002254803348455244</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1230420566052199</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02109744140736566</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>953394675.4440242</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3701639238.376569</v>
+        <v>1139401161.028094</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001374179584462007</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1393877987876501</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03760716030711856</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>569700620.3582543</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9080343799.868931</v>
+        <v>2787667846.60674</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003618445121298236</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>6</v>
+        <v>0.1127593733651577</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02858313767968856</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1393833932.546501</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7343906502.152984</v>
+        <v>2993987107.097327</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00527396288883103</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>6</v>
+        <v>0.1586112078188894</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03671317004248936</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1496993591.871922</v>
       </c>
     </row>
     <row r="90">
@@ -2947,19 +3485,25 @@
         <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7168809530.536214</v>
+        <v>2024745765.49403</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003518621792045292</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>4</v>
+        <v>0.09035019020460734</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05471778604775771</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1012372957.293718</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7047369689.216398</v>
+        <v>1488341637.479173</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004354078785972802</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>8</v>
+        <v>0.1528598416938384</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05890319816131147</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>744170859.0154598</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5058436458.315599</v>
+        <v>2953487812.887651</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003924175717466444</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.09992620799009194</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0414440351353683</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1476743924.483169</v>
       </c>
     </row>
     <row r="93">
@@ -3031,19 +3587,25 @@
         <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>8239555524.131816</v>
+        <v>4602089287.415994</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001592042977250544</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>9</v>
+        <v>0.08641238677313955</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04300331631601406</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>8</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2301044605.147475</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6863428869.325211</v>
+        <v>1745946820.105494</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001366315175296174</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>9</v>
+        <v>0.1435373018110538</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.0365937129238123</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>872973375.0869195</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>433</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2283037347.183779</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.0870383584780917</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03740751003508892</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>6</v>
       </c>
-      <c r="D95" t="n">
-        <v>511</v>
-      </c>
-      <c r="E95" t="n">
-        <v>6436396493.849172</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.002500231980042832</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>7</v>
+      <c r="J95" t="n">
+        <v>1141518725.231419</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9504299808.478193</v>
+        <v>1603720167.296602</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002130126591237094</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>7</v>
+        <v>0.1159128536002235</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.04706758641824452</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>801860112.6872689</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6451236554.035629</v>
+        <v>4379488199.293083</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005816198364915158</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>7</v>
+        <v>0.172562687216123</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02465428122808879</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>9</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2189744186.315526</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>7080924861.388319</v>
+        <v>3625211270.815153</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003752238787905719</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>10</v>
+        <v>0.1200490445863223</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02111332435447546</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1812605662.296042</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2383333854.018386</v>
+        <v>3162324681.962374</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004848369564957573</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09693978546731299</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02808617677169688</v>
+      </c>
+      <c r="H99" t="b">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>8</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1581162338.531973</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5371064797.180681</v>
+        <v>2968616727.120339</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00247328776101202</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
+        <v>0.1732302551510571</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01938179567063301</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1484308351.733263</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5968770260.233663</v>
+        <v>2532430641.256791</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001520693119057494</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>9</v>
+        <v>0.1818549184201735</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03546865938390734</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>10</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1266215347.684146</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2051600659.708031</v>
+        <v>2410116263.504119</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08984439760085514</v>
+        <v>0.08402652305190721</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03248201040227426</v>
+        <v>0.0377876155338548</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1025800332.235258</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2054389315.103858</v>
+        <v>1937562145.79716</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1588261814891243</v>
+        <v>0.1116807938886746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03461545451731304</v>
+        <v>0.03675873191079506</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1027194705.79692</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3585704380.720738</v>
+        <v>4586393205.133982</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1073148503035839</v>
+        <v>0.1150907227030547</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03622193286241618</v>
+        <v>0.03065416687791123</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1792852174.957806</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4203049163.137305</v>
+        <v>3081053434.836717</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1080586013048924</v>
+        <v>0.09723358842913193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04556886551834363</v>
+        <v>0.03786888616110816</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2101524571.734858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2287116009.578659</v>
+        <v>1807376463.385441</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09771325327818846</v>
+        <v>0.1093369938807666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05437000145326117</v>
+        <v>0.03755532799407529</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1143558003.105803</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3022889466.053853</v>
+        <v>3097677257.696084</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08941840990336118</v>
+        <v>0.08660261171769755</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03210975446244016</v>
+        <v>0.04383930861039322</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1511444695.452906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3522890839.511158</v>
+        <v>3202534406.486328</v>
       </c>
       <c r="F8" t="n">
-        <v>0.177258027066386</v>
+        <v>0.1897413701001162</v>
       </c>
       <c r="G8" t="n">
-        <v>0.020834727861713</v>
+        <v>0.02051132229703308</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1761445530.508858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1763129129.922127</v>
+        <v>1570695871.123301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1815531185076947</v>
+        <v>0.1938744816307859</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02916718808335834</v>
+        <v>0.02861807987578259</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>881564624.2379392</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4616663038.981948</v>
+        <v>3927940442.320088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1978178550599119</v>
+        <v>0.178269172925832</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04684210575819626</v>
+        <v>0.03535808720043451</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2308331588.917464</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3953395303.750782</v>
+        <v>3737358670.804229</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1161088635253091</v>
+        <v>0.1736173237990815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03689945349786734</v>
+        <v>0.0357105121662351</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1976697661.145047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2972829370.061578</v>
+        <v>3049038998.127218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1440242765122285</v>
+        <v>0.1201319013197324</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04597500513672725</v>
+        <v>0.0377048075458117</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1486414700.350989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4293249366.832125</v>
+        <v>4241539707.770162</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09558706712285492</v>
+        <v>0.09125650923039227</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02147981120274723</v>
+        <v>0.0251115325391061</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2146624723.237002</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3824535661.979661</v>
+        <v>3722492932.347149</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1408766238071525</v>
+        <v>0.1874689282411812</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03342822212108462</v>
+        <v>0.0413043283401051</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1912267805.506386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1689982922.531029</v>
+        <v>1487198927.855885</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09150494464398115</v>
+        <v>0.1094682665168134</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04191628947051668</v>
+        <v>0.04319272504154284</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>844991589.6361196</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2080993043.684424</v>
+        <v>2516949429.116044</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09096100417313295</v>
+        <v>0.07070977298383946</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04478131163719822</v>
+        <v>0.04649151877251304</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1040496589.865857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3516549831.397347</v>
+        <v>3821858047.78514</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1269888158243306</v>
+        <v>0.1361315448631808</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04820261086439818</v>
+        <v>0.03419473421521107</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1758274973.902072</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2473462397.06936</v>
+        <v>3800648850.882061</v>
       </c>
       <c r="F18" t="n">
-        <v>0.131828831705588</v>
+        <v>0.1242848799354801</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03273711426275167</v>
+        <v>0.03355876072046796</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1236731266.712595</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1148503427.276768</v>
+        <v>906970046.8857465</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1516057295244816</v>
+        <v>0.1270093460298363</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02723866520435513</v>
+        <v>0.02395297469214281</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>574251778.8390027</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2371711411.363837</v>
+        <v>2619743245.99639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1067167655798813</v>
+        <v>0.1288481420657806</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02694546169412693</v>
+        <v>0.02858314533557747</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1185855692.2237</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2224219206.154849</v>
+        <v>2697976434.348466</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07630583958535536</v>
+        <v>0.09665493306218481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03572414932170085</v>
+        <v>0.04410721860311902</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1112109617.392185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3064482653.329908</v>
+        <v>3701647940.289209</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1200683810214517</v>
+        <v>0.09216204921215233</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03499903994549884</v>
+        <v>0.05242621401201898</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1532241384.137734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1023501453.585334</v>
+        <v>1009761016.714102</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1193271731523804</v>
+        <v>0.1253393989403141</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03870160108222677</v>
+        <v>0.03691314567758237</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>511750792.7893471</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2719637061.802651</v>
+        <v>3539568996.008602</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1199346921442386</v>
+        <v>0.09716209680195717</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02917151961153673</v>
+        <v>0.03695355880194519</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1359818584.800638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1384093693.902815</v>
+        <v>1207541466.557083</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0948953409932566</v>
+        <v>0.1047736848526491</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03010876606702034</v>
+        <v>0.03006579489486367</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>692046822.2962834</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1376457215.093977</v>
+        <v>1330116743.895261</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1172453061515745</v>
+        <v>0.09816083642625202</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0313007969132058</v>
+        <v>0.03345827605597326</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>688228671.5458322</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4639457043.880729</v>
+        <v>3811739305.059462</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1550798909818082</v>
+        <v>0.09893045912280771</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02391239936459189</v>
+        <v>0.02121525603996241</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>6</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2319728500.08097</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2661290331.399495</v>
+        <v>3810380086.589311</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09653169898317378</v>
+        <v>0.1378109667976659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03309158884051497</v>
+        <v>0.04641461475146147</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1330645147.32277</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4080689307.945938</v>
+        <v>5548817953.203416</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1157176431091212</v>
+        <v>0.1361864888007181</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03124572701396796</v>
+        <v>0.0365780983268973</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>12</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2040344665.102856</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1597757024.438646</v>
+        <v>1932701041.796753</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08466366361884664</v>
+        <v>0.1000991245965454</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0341586420684088</v>
+        <v>0.0350324024167162</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>798878503.6535836</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1333893682.928801</v>
+        <v>1178287206.377137</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07440636452730048</v>
+        <v>0.07056028196596668</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04330985750146638</v>
+        <v>0.0324671118634371</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666946761.1960754</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1196868033.287064</v>
+        <v>1525303531.673128</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07798252293271407</v>
+        <v>0.1000812863889705</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03378422886639149</v>
+        <v>0.02388654628119582</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>598434021.9347045</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2275519147.959989</v>
+        <v>2291941864.364775</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1464371225125914</v>
+        <v>0.1796220375233074</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04600537379252871</v>
+        <v>0.03901513651121786</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1137759631.093436</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1308532498.636014</v>
+        <v>1194123947.320923</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1166587048410551</v>
+        <v>0.1108892620469663</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02444013510225211</v>
+        <v>0.02610507422336512</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>654266236.3180275</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1000813462.837734</v>
+        <v>1055012370.062297</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1008798949549249</v>
+        <v>0.08532018569337431</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04007115325113361</v>
+        <v>0.03442736120236761</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>500406749.6154515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2185159527.481872</v>
+        <v>2448801893.967794</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1333792897821496</v>
+        <v>0.1634089887862024</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0288916012997059</v>
+        <v>0.02304863184157853</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1092579810.755855</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2534554411.258294</v>
+        <v>2268800888.836816</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0685906711352712</v>
+        <v>0.08105531423372098</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03301902290508251</v>
+        <v>0.04082060961970543</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1267277306.231847</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1935094574.378734</v>
+        <v>1996341720.738262</v>
       </c>
       <c r="F38" t="n">
-        <v>0.079280704654263</v>
+        <v>0.09605748452156034</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03924321501819732</v>
+        <v>0.03663680036087612</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>967547274.7818086</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2186461269.439178</v>
+        <v>1576303110.686051</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1823278733970037</v>
+        <v>0.1501479843264861</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02228986420065759</v>
+        <v>0.02459452003001615</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1093230600.759787</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1265999701.14169</v>
+        <v>1184647912.567459</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1278621297717367</v>
+        <v>0.1276443397820081</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04691820546234274</v>
+        <v>0.055020407989914</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>632999875.1381379</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2725054143.5691</v>
+        <v>2769682769.849768</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1115154212180074</v>
+        <v>0.1527480950594356</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03459458305083009</v>
+        <v>0.03618332644281091</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1362527074.895714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3648769631.486863</v>
+        <v>2655110010.941971</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08810852972949364</v>
+        <v>0.08050422943445813</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02964170297785908</v>
+        <v>0.04231553437801745</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1824384820.626707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2517081527.179778</v>
+        <v>2536299785.624917</v>
       </c>
       <c r="F43" t="n">
-        <v>0.176543317971815</v>
+        <v>0.130460343583189</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01591825139373977</v>
+        <v>0.01824774026978056</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1258540810.319915</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1603890818.692324</v>
+        <v>1541556765.712827</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06772627903804734</v>
+        <v>0.102297250438633</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02238558869810076</v>
+        <v>0.0329482391512852</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>801945436.4591306</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2521533224.091708</v>
+        <v>2036708652.603237</v>
       </c>
       <c r="F45" t="n">
-        <v>0.171292582901644</v>
+        <v>0.1865621666247866</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04572150019203219</v>
+        <v>0.04766044598093208</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1260766655.235918</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5303152208.129255</v>
+        <v>3730335583.982153</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1158097585077389</v>
+        <v>0.142720170803842</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05601728251675907</v>
+        <v>0.05295863046319655</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2651576148.014094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4707288822.110427</v>
+        <v>4338269587.747678</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1874114462085688</v>
+        <v>0.131358452763682</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05670938128060531</v>
+        <v>0.03926919183514751</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2353644450.089777</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3439471144.894159</v>
+        <v>4070429819.925813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0993562600874555</v>
+        <v>0.1097811274963155</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02377947295888141</v>
+        <v>0.02968115919620491</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1719735639.16618</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1946729593.034514</v>
+        <v>1222538963.584471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1231450661754296</v>
+        <v>0.1415932441913031</v>
       </c>
       <c r="G49" t="n">
-        <v>0.039549074399816</v>
+        <v>0.03446461269183054</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>973364758.7965971</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2950465651.793128</v>
+        <v>3869950150.247615</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1278380212771829</v>
+        <v>0.1236223914742396</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03983902676486533</v>
+        <v>0.05317282841918226</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1475232889.061832</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1308984862.634353</v>
+        <v>946634438.9182085</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1297116393577385</v>
+        <v>0.1493641714351009</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03291370803699439</v>
+        <v>0.0535157422212041</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>654492465.0133957</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3474265306.887084</v>
+        <v>3703963840.883716</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09270696966757216</v>
+        <v>0.09412994646935681</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05692941238438095</v>
+        <v>0.03992379311992798</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1737132740.656381</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2441558707.866726</v>
+        <v>2794504487.396181</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1530413335350563</v>
+        <v>0.171491590430236</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03240404442121526</v>
+        <v>0.0350106099291186</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1220779424.713373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3500004777.709527</v>
+        <v>4377326800.441015</v>
       </c>
       <c r="F54" t="n">
-        <v>0.137539406098309</v>
+        <v>0.1239750630323132</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04616791667587634</v>
+        <v>0.03505566124810945</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1750002413.470601</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3978003898.399203</v>
+        <v>4111276865.495642</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1583357178661823</v>
+        <v>0.184972175636913</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02539633246384103</v>
+        <v>0.03263082287065407</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1989001922.961852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1283245327.835192</v>
+        <v>1379796137.308305</v>
       </c>
       <c r="F56" t="n">
-        <v>0.116766752550732</v>
+        <v>0.1068452814917806</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05002650184069653</v>
+        <v>0.04849042833146931</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>641622738.0068346</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3957788523.335163</v>
+        <v>4362643369.928596</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1370204839451557</v>
+        <v>0.1619094629322503</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02442342040235634</v>
+        <v>0.02164678953988828</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1978894346.254127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1758763924.10959</v>
+        <v>1755979908.712529</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1603858539408646</v>
+        <v>0.1751592700066492</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02691514507964813</v>
+        <v>0.03798816700624278</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>879381969.3811208</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4199312972.965423</v>
+        <v>5241617651.555371</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1041111423164674</v>
+        <v>0.1107580249840158</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03626087595943898</v>
+        <v>0.03287202529855746</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2099656452.596678</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3487152627.858385</v>
+        <v>3772012346.960284</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1280214575630758</v>
+        <v>0.1878131568077669</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02323698524713975</v>
+        <v>0.0262387263830016</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1743576435.106318</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2660579554.657647</v>
+        <v>2915131718.990464</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1104249889710881</v>
+        <v>0.1182580967181083</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02232344943087729</v>
+        <v>0.03074692844740654</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>9</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1330289789.598419</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2014086384.71422</v>
+        <v>2004745363.871703</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1818934471280189</v>
+        <v>0.1665478306964568</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03183838050724262</v>
+        <v>0.04650058505075026</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1007043252.347652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4165616822.41339</v>
+        <v>5094149558.65159</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1007416391412175</v>
+        <v>0.07581827966664481</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03539675043255516</v>
+        <v>0.04476308746076574</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2082808465.981283</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4299390365.243358</v>
+        <v>4179822012.200081</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1215927025848899</v>
+        <v>0.1208122098257424</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03187873616753144</v>
+        <v>0.02413939668742171</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2149695239.314318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5883441733.789362</v>
+        <v>4635507021.016407</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1367990377970355</v>
+        <v>0.161403939260585</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02042757103137301</v>
+        <v>0.028422615628369</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>10</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2941720772.845529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5731616418.34681</v>
+        <v>3774633979.806623</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1543640731280777</v>
+        <v>0.1268111265222572</v>
       </c>
       <c r="G66" t="n">
-        <v>0.040141493093171</v>
+        <v>0.03609443114230818</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2865808275.321729</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2665282089.906038</v>
+        <v>3237048592.795119</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08203668936985788</v>
+        <v>0.08232133482901435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04446631290709144</v>
+        <v>0.0445971528108229</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1332641091.313244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5255854687.201991</v>
+        <v>5389775297.888226</v>
       </c>
       <c r="F68" t="n">
-        <v>0.11834307516179</v>
+        <v>0.1003502876855766</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04781425210607659</v>
+        <v>0.03698533605264684</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>8</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2627927415.263499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2278174136.072719</v>
+        <v>2356314070.358463</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1597283897783742</v>
+        <v>0.1644504190402886</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04117997366529668</v>
+        <v>0.04651645818755697</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1139087108.735947</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3332222829.709736</v>
+        <v>3044203531.477967</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06628376835574039</v>
+        <v>0.06422312268634989</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04271861583807345</v>
+        <v>0.03097570681613927</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1666111413.23564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4007813024.694338</v>
+        <v>3779720420.606734</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1363277950241863</v>
+        <v>0.1118548023858689</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02530236750389612</v>
+        <v>0.03150799489692195</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>10</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2003906543.766093</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1664656637.810874</v>
+        <v>2179522412.837617</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07536445927041303</v>
+        <v>0.09094832070540189</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04430583132288279</v>
+        <v>0.03689181068436084</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>832328319.143626</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2937804488.254175</v>
+        <v>3574113076.66616</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0886852617700107</v>
+        <v>0.08464366599796808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03573335709936504</v>
+        <v>0.05013714780195232</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>10</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1468902245.577679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3864170769.241961</v>
+        <v>2460559651.309194</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1445608192566804</v>
+        <v>0.1192235051775375</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03063051773084648</v>
+        <v>0.02152305319807176</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>9</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1932085375.105462</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2064158120.070689</v>
+        <v>2173960774.831429</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1114120483142171</v>
+        <v>0.1490154419619581</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03214472124162231</v>
+        <v>0.03615145646555552</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1032079017.939816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3642301035.675941</v>
+        <v>5192240041.521561</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1197364334543666</v>
+        <v>0.0934561906321017</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02155206606241753</v>
+        <v>0.02408204107352416</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1821150487.348505</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1922156914.883578</v>
+        <v>2152929320.575422</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1420825909268307</v>
+        <v>0.1595370853728697</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02346050381127483</v>
+        <v>0.02770530304229013</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>961078507.2485009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3790407867.909734</v>
+        <v>4588765474.586255</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1207449568777429</v>
+        <v>0.1356590245137507</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05415258208745869</v>
+        <v>0.03733753169671035</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>9</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1895203914.48824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1691470367.328607</v>
+        <v>1272614617.999292</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324976164267458</v>
+        <v>0.1218898675084536</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03687033987981891</v>
+        <v>0.03964940573340041</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>845735251.1114503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5169523879.63688</v>
+        <v>3525639162.844142</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08095645733839779</v>
+        <v>0.07566763836055798</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03791871586273803</v>
+        <v>0.03095804851890329</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2584761997.203499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4079391835.284186</v>
+        <v>4543462073.446691</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08929610773048406</v>
+        <v>0.1160233720764572</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02040662022819438</v>
+        <v>0.02901612829448734</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2039695883.59413</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5399692554.550296</v>
+        <v>3432265242.384618</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1449191022463494</v>
+        <v>0.206189640465487</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02292009448574622</v>
+        <v>0.01793752795436694</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>9</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2699846238.679931</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2000291781.151769</v>
+        <v>2223452891.052237</v>
       </c>
       <c r="F83" t="n">
-        <v>0.140399492227451</v>
+        <v>0.1499138127350359</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03650193870822063</v>
+        <v>0.0387641107368597</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1000145875.745472</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1997685046.912393</v>
+        <v>2593280263.535282</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1183907817329914</v>
+        <v>0.08142732595644146</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04523057335201517</v>
+        <v>0.04051380231334762</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>998842528.5841918</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2789966916.277613</v>
+        <v>2252335568.819543</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1759254421541996</v>
+        <v>0.123368265925081</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04721015348122449</v>
+        <v>0.04380170800405752</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>10</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1394983494.886245</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1906789321.92568</v>
+        <v>2366659759.427173</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1230420566052199</v>
+        <v>0.1672605475309559</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02109744140736566</v>
+        <v>0.02668482761748376</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
         <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>953394675.4440242</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1139401161.028094</v>
+        <v>1281679829.119777</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1393877987876501</v>
+        <v>0.1194780057967318</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03760716030711856</v>
+        <v>0.03342571135448865</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>569700620.3582543</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2787667846.60674</v>
+        <v>2581656499.266322</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1127593733651577</v>
+        <v>0.1195615962885073</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02858313767968856</v>
+        <v>0.03808466658907864</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>10</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1393833932.546501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2993987107.097327</v>
+        <v>3019149801.110541</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1586112078188894</v>
+        <v>0.1422111672696119</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03671317004248936</v>
+        <v>0.03562513900635119</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>9</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1496993591.871922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2024745765.49403</v>
+        <v>2143423478.219723</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09035019020460734</v>
+        <v>0.1009645451416306</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05471778604775771</v>
+        <v>0.03946211421108037</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1012372957.293718</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1488341637.479173</v>
+        <v>2073255932.696494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1528598416938384</v>
+        <v>0.1605058464418353</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05890319816131147</v>
+        <v>0.03958641876700503</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>744170859.0154598</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2953487812.887651</v>
+        <v>2638337137.296936</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09992620799009194</v>
+        <v>0.09882691579877098</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0414440351353683</v>
+        <v>0.04499185458067601</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1476743924.483169</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4602089287.415994</v>
+        <v>3702402955.225773</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08641238677313955</v>
+        <v>0.1001838612494813</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04300331631601406</v>
+        <v>0.03449603248540972</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>8</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2301044605.147475</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1745946820.105494</v>
+        <v>1870193746.153321</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1435373018110538</v>
+        <v>0.1034835761927593</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0365937129238123</v>
+        <v>0.03757110859002511</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>872973375.0869195</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2283037347.183779</v>
+        <v>2436873359.522361</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0870383584780917</v>
+        <v>0.09088842130204032</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03740751003508892</v>
+        <v>0.04337497580671646</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1141518725.231419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1603720167.296602</v>
+        <v>1482700868.026947</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1159128536002235</v>
+        <v>0.1207547433322955</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04706758641824452</v>
+        <v>0.03601387648493067</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>801860112.6872689</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4379488199.293083</v>
+        <v>4677977287.188653</v>
       </c>
       <c r="F97" t="n">
-        <v>0.172562687216123</v>
+        <v>0.1641092767279133</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02465428122808879</v>
+        <v>0.02549458914918337</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2189744186.315526</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3625211270.815153</v>
+        <v>3313530973.45426</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1200490445863223</v>
+        <v>0.1249192561171918</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02111332435447546</v>
+        <v>0.03179821862836219</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1812605662.296042</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3162324681.962374</v>
+        <v>2389466115.577803</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09693978546731299</v>
+        <v>0.0937661839560744</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02808617677169688</v>
+        <v>0.02309540604409915</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>8</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1581162338.531973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2968616727.120339</v>
+        <v>3960618274.007165</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1732302551510571</v>
+        <v>0.1760089775782943</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01938179567063301</v>
+        <v>0.02400577698854442</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1484308351.733263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2532430641.256791</v>
+        <v>3164143195.865839</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1818549184201735</v>
+        <v>0.19867214109923</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03546865938390734</v>
+        <v>0.03586102101500149</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1266215347.684146</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2410116263.504119</v>
+        <v>2185126656.916812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08402652305190721</v>
+        <v>0.08716378149638347</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0377876155338548</v>
+        <v>0.02894579835277689</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1937562145.79716</v>
+        <v>1975716651.108034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1116807938886746</v>
+        <v>0.1797571165892682</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03675873191079506</v>
+        <v>0.04899587501310937</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4586393205.133982</v>
+        <v>5069430367.06965</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1150907227030547</v>
+        <v>0.116010641104611</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03065416687791123</v>
+        <v>0.03775306568139956</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3081053434.836717</v>
+        <v>4149076242.956313</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09723358842913193</v>
+        <v>0.08289798068624923</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03786888616110816</v>
+        <v>0.03952607827716095</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1807376463.385441</v>
+        <v>2183234631.132861</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1093369938807666</v>
+        <v>0.09486207046028476</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03755532799407529</v>
+        <v>0.05287854584199197</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3097677257.696084</v>
+        <v>2815748512.656962</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08660261171769755</v>
+        <v>0.08151273465597923</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04383930861039322</v>
+        <v>0.03637149999006853</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3202534406.486328</v>
+        <v>2789627439.076177</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1897413701001162</v>
+        <v>0.179652617356062</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02051132229703308</v>
+        <v>0.03307072041996986</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1570695871.123301</v>
+        <v>1707932689.396049</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1938744816307859</v>
+        <v>0.1337235118830102</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02861807987578259</v>
+        <v>0.03282669868929053</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3927940442.320088</v>
+        <v>5062582214.212857</v>
       </c>
       <c r="F10" t="n">
-        <v>0.178269172925832</v>
+        <v>0.1477202408593642</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03535808720043451</v>
+        <v>0.05050472144636404</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3737358670.804229</v>
+        <v>4097138725.636483</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1736173237990815</v>
+        <v>0.1295344038387826</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0357105121662351</v>
+        <v>0.04378973876029497</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3049038998.127218</v>
+        <v>2060003294.956269</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1201319013197324</v>
+        <v>0.1639060036461818</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0377048075458117</v>
+        <v>0.03835876675025224</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4241539707.770162</v>
+        <v>4288364248.079237</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09125650923039227</v>
+        <v>0.0632734963314619</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0251115325391061</v>
+        <v>0.02764065462025108</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3722492932.347149</v>
+        <v>3229814211.842897</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1874689282411812</v>
+        <v>0.1295273597026939</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0413043283401051</v>
+        <v>0.03008424622988757</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1487198927.855885</v>
+        <v>1651054697.408262</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1094682665168134</v>
+        <v>0.07011326241126406</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04319272504154284</v>
+        <v>0.04558146658922254</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2516949429.116044</v>
+        <v>1858230705.49118</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07070977298383946</v>
+        <v>0.1105491073207471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04649151877251304</v>
+        <v>0.03378190756251586</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3821858047.78514</v>
+        <v>3995559377.987525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1361315448631808</v>
+        <v>0.105696799675158</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03419473421521107</v>
+        <v>0.04331527791011328</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3800648850.882061</v>
+        <v>3904553313.068853</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1242848799354801</v>
+        <v>0.1251731020376713</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03355876072046796</v>
+        <v>0.02840743646489252</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>906970046.8857465</v>
+        <v>894777029.4252646</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1270093460298363</v>
+        <v>0.1737972146323702</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02395297469214281</v>
+        <v>0.02093205769261899</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2619743245.99639</v>
+        <v>2264768521.977611</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1288481420657806</v>
+        <v>0.161105076202177</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02858314533557747</v>
+        <v>0.02288288713516429</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2697976434.348466</v>
+        <v>2375646394.388014</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09665493306218481</v>
+        <v>0.08922577777392977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04410721860311902</v>
+        <v>0.04430330485128401</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3701647940.289209</v>
+        <v>2594490459.796382</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09216204921215233</v>
+        <v>0.09699432228473845</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05242621401201898</v>
+        <v>0.03903810899492182</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1009761016.714102</v>
+        <v>1433083377.001689</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1253393989403141</v>
+        <v>0.1762480847034081</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03691314567758237</v>
+        <v>0.03887327373938179</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3539568996.008602</v>
+        <v>2567165382.476012</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09716209680195717</v>
+        <v>0.09302308209940446</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03695355880194519</v>
+        <v>0.02765246663807699</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1207541466.557083</v>
+        <v>1298479145.23018</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1047736848526491</v>
+        <v>0.08268582263727042</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03006579489486367</v>
+        <v>0.03047910959826576</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1330116743.895261</v>
+        <v>1419942228.562317</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09816083642625202</v>
+        <v>0.1195832813106566</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03345827605597326</v>
+        <v>0.02607355439124114</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3811739305.059462</v>
+        <v>3419261679.9401</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09893045912280771</v>
+        <v>0.1496739119427871</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02121525603996241</v>
+        <v>0.02554753027630095</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3810380086.589311</v>
+        <v>3436678133.367071</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1378109667976659</v>
+        <v>0.09853425681718291</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04641461475146147</v>
+        <v>0.03568986669130976</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5548817953.203416</v>
+        <v>5285955577.966206</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1361864888007181</v>
+        <v>0.1200978738803741</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0365780983268973</v>
+        <v>0.02840536268400344</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1932701041.796753</v>
+        <v>2255870618.85569</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1000991245965454</v>
+        <v>0.08586417053871037</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0350324024167162</v>
+        <v>0.03724880761268252</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1178287206.377137</v>
+        <v>1214305193.818621</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07056028196596668</v>
+        <v>0.09825485756139961</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0324671118634371</v>
+        <v>0.04160005998641941</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1525303531.673128</v>
+        <v>1590463106.404653</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1000812863889705</v>
+        <v>0.1012493690067594</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02388654628119582</v>
+        <v>0.02539145328966957</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2291941864.364775</v>
+        <v>2432465326.667747</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1796220375233074</v>
+        <v>0.1554769168717015</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03901513651121786</v>
+        <v>0.04863952675506278</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1194123947.320923</v>
+        <v>975220733.0812961</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1108892620469663</v>
+        <v>0.1200519802819794</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02610507422336512</v>
+        <v>0.0251060647941652</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1055012370.062297</v>
+        <v>1041341272.904613</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08532018569337431</v>
+        <v>0.1070507149180028</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03442736120236761</v>
+        <v>0.04213617091499475</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2448801893.967794</v>
+        <v>2419337564.031226</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1634089887862024</v>
+        <v>0.1651762114820118</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02304863184157853</v>
+        <v>0.02877121470879289</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2268800888.836816</v>
+        <v>2119329025.282133</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08105531423372098</v>
+        <v>0.0969939595687416</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04082060961970543</v>
+        <v>0.04111918782842478</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1996341720.738262</v>
+        <v>1962531112.624478</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09605748452156034</v>
+        <v>0.1125465371444958</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03663680036087612</v>
+        <v>0.0393374956505476</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1576303110.686051</v>
+        <v>1669594731.66948</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1501479843264861</v>
+        <v>0.1246615263382199</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02459452003001615</v>
+        <v>0.02530412631638773</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1184647912.567459</v>
+        <v>1172560437.184127</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1276443397820081</v>
+        <v>0.1067683687820512</v>
       </c>
       <c r="G40" t="n">
-        <v>0.055020407989914</v>
+        <v>0.05158901308574634</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2769682769.849768</v>
+        <v>2057478096.933915</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1527480950594356</v>
+        <v>0.147030501250353</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03618332644281091</v>
+        <v>0.03174601114359683</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2655110010.941971</v>
+        <v>4137669705.713799</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08050422943445813</v>
+        <v>0.1143834600072139</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04231553437801745</v>
+        <v>0.03079652226875257</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2536299785.624917</v>
+        <v>2989204637.401421</v>
       </c>
       <c r="F43" t="n">
-        <v>0.130460343583189</v>
+        <v>0.1504057328806248</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01824774026978056</v>
+        <v>0.02536623644599616</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1541556765.712827</v>
+        <v>1660832636.030062</v>
       </c>
       <c r="F44" t="n">
-        <v>0.102297250438633</v>
+        <v>0.0698924784215022</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0329482391512852</v>
+        <v>0.03441744346489501</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2036708652.603237</v>
+        <v>2270303527.988862</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1865621666247866</v>
+        <v>0.1493276874744039</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04766044598093208</v>
+        <v>0.03572493564837204</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3730335583.982153</v>
+        <v>5625919754.354756</v>
       </c>
       <c r="F46" t="n">
-        <v>0.142720170803842</v>
+        <v>0.1690965453424614</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05295863046319655</v>
+        <v>0.04233783983342439</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4338269587.747678</v>
+        <v>3472180330.366006</v>
       </c>
       <c r="F47" t="n">
-        <v>0.131358452763682</v>
+        <v>0.1696337651251153</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03926919183514751</v>
+        <v>0.04303136129512901</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4070429819.925813</v>
+        <v>3345207145.876821</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1097811274963155</v>
+        <v>0.09156487169022083</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02968115919620491</v>
+        <v>0.03921164426522144</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1222538963.584471</v>
+        <v>1444524073.232425</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1415932441913031</v>
+        <v>0.1195639975451789</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03446461269183054</v>
+        <v>0.03217098952520266</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3869950150.247615</v>
+        <v>3266296811.282682</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1236223914742396</v>
+        <v>0.1700219084424839</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05317282841918226</v>
+        <v>0.03655988724176366</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>946634438.9182085</v>
+        <v>1139127208.695754</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1493641714351009</v>
+        <v>0.144779767749721</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0535157422212041</v>
+        <v>0.04197080074575388</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3703963840.883716</v>
+        <v>3233455098.208441</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09412994646935681</v>
+        <v>0.1185766385484052</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03992379311992798</v>
+        <v>0.03907173325080778</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2794504487.396181</v>
+        <v>3295357151.631549</v>
       </c>
       <c r="F53" t="n">
-        <v>0.171491590430236</v>
+        <v>0.1668595545159447</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0350106099291186</v>
+        <v>0.02842579236329014</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4377326800.441015</v>
+        <v>3318316329.249834</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1239750630323132</v>
+        <v>0.1526173974249114</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03505566124810945</v>
+        <v>0.03775271341565966</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4111276865.495642</v>
+        <v>3344196381.748314</v>
       </c>
       <c r="F55" t="n">
-        <v>0.184972175636913</v>
+        <v>0.2149552353060635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03263082287065407</v>
+        <v>0.0314787884594688</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1379796137.308305</v>
+        <v>1457404823.306272</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1068452814917806</v>
+        <v>0.1269569148297929</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04849042833146931</v>
+        <v>0.04452328683506292</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4362643369.928596</v>
+        <v>3770151137.936485</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1619094629322503</v>
+        <v>0.1766254224297985</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02164678953988828</v>
+        <v>0.01719687379751158</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1755979908.712529</v>
+        <v>1855192528.623466</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1751592700066492</v>
+        <v>0.1281222784996607</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03798816700624278</v>
+        <v>0.02673611843704607</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5241617651.555371</v>
+        <v>5382845809.699039</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1107580249840158</v>
+        <v>0.09255917488666902</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03287202529855746</v>
+        <v>0.03836473160086332</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3772012346.960284</v>
+        <v>3728425134.625152</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1878131568077669</v>
+        <v>0.1395558386841702</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0262387263830016</v>
+        <v>0.02823793468182644</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2915131718.990464</v>
+        <v>2164948460.326925</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1182580967181083</v>
+        <v>0.1623516356131659</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03074692844740654</v>
+        <v>0.02462353850332924</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2004745363.871703</v>
+        <v>1437348114.768577</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1665478306964568</v>
+        <v>0.1207731732876665</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04650058505075026</v>
+        <v>0.0473347735487677</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5094149558.65159</v>
+        <v>4988958242.978863</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07581827966664481</v>
+        <v>0.09227659493042127</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04476308746076574</v>
+        <v>0.03357451557047293</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4179822012.200081</v>
+        <v>5551312648.862852</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1208122098257424</v>
+        <v>0.1656584474869842</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02413939668742171</v>
+        <v>0.03068743443770409</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4635507021.016407</v>
+        <v>4161724521.314961</v>
       </c>
       <c r="F65" t="n">
-        <v>0.161403939260585</v>
+        <v>0.1512516267681344</v>
       </c>
       <c r="G65" t="n">
-        <v>0.028422615628369</v>
+        <v>0.02238179956556345</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3774633979.806623</v>
+        <v>3746311253.715888</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1268111265222572</v>
+        <v>0.1251955755409776</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03609443114230818</v>
+        <v>0.03883552192897471</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3237048592.795119</v>
+        <v>2296995429.307772</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08232133482901435</v>
+        <v>0.08503048234443383</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0445971528108229</v>
+        <v>0.03441570978521163</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5389775297.888226</v>
+        <v>5531241076.630871</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1003502876855766</v>
+        <v>0.1267797002635121</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03698533605264684</v>
+        <v>0.04686338012379124</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2356314070.358463</v>
+        <v>1644242296.275616</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1644504190402886</v>
+        <v>0.1492474704770231</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04651645818755697</v>
+        <v>0.05711825240543746</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3044203531.477967</v>
+        <v>3443649487.452818</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06422312268634989</v>
+        <v>0.07344605349852749</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03097570681613927</v>
+        <v>0.03188610399817603</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3779720420.606734</v>
+        <v>4928584303.074606</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1118548023858689</v>
+        <v>0.1123619638582198</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03150799489692195</v>
+        <v>0.03325634037182179</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2179522412.837617</v>
+        <v>1546271158.591831</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09094832070540189</v>
+        <v>0.07235039404786191</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03689181068436084</v>
+        <v>0.04785129158085167</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3574113076.66616</v>
+        <v>3142904390.962796</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08464366599796808</v>
+        <v>0.09882702796084036</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05013714780195232</v>
+        <v>0.03915302282326218</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2460559651.309194</v>
+        <v>3115012503.600083</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1192235051775375</v>
+        <v>0.1372796654582304</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02152305319807176</v>
+        <v>0.0228697992000452</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2173960774.831429</v>
+        <v>2483157378.634635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1490154419619581</v>
+        <v>0.1087069645696023</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03615145646555552</v>
+        <v>0.02823398318516325</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5192240041.521561</v>
+        <v>4099224200.724065</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0934561906321017</v>
+        <v>0.07836659501913494</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02408204107352416</v>
+        <v>0.02877446025974464</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2152929320.575422</v>
+        <v>2099933295.991476</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1595370853728697</v>
+        <v>0.1376478074701559</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02770530304229013</v>
+        <v>0.02234953396449071</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4588765474.586255</v>
+        <v>4171072993.689429</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1356590245137507</v>
+        <v>0.1017387658106121</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03733753169671035</v>
+        <v>0.05351303931864325</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1272614617.999292</v>
+        <v>1472136858.930549</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1218898675084536</v>
+        <v>0.1511213310712051</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03964940573340041</v>
+        <v>0.03848417131690222</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3525639162.844142</v>
+        <v>4646523579.498425</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07566763836055798</v>
+        <v>0.08491063455282838</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03095804851890329</v>
+        <v>0.03319901337416644</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4543462073.446691</v>
+        <v>3939750893.166368</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1160233720764572</v>
+        <v>0.08975486929105396</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02901612829448734</v>
+        <v>0.02724833656408955</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3432265242.384618</v>
+        <v>5392627328.684402</v>
       </c>
       <c r="F82" t="n">
-        <v>0.206189640465487</v>
+        <v>0.1388130686482023</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01793752795436694</v>
+        <v>0.01839490050730614</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2223452891.052237</v>
+        <v>2360947631.360668</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1499138127350359</v>
+        <v>0.139881948925326</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0387641107368597</v>
+        <v>0.04149767575483172</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2593280263.535282</v>
+        <v>2526270250.395735</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08142732595644146</v>
+        <v>0.119655898262003</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04051380231334762</v>
+        <v>0.04301075874606417</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2252335568.819543</v>
+        <v>3059311976.976633</v>
       </c>
       <c r="F85" t="n">
-        <v>0.123368265925081</v>
+        <v>0.1197654820593338</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04380170800405752</v>
+        <v>0.03702419989044452</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2366659759.427173</v>
+        <v>1994266077.690667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1672605475309559</v>
+        <v>0.1344469723699221</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02668482761748376</v>
+        <v>0.01852946629696972</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1281679829.119777</v>
+        <v>1497481924.604908</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1194780057967318</v>
+        <v>0.1876780474657337</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03342571135448865</v>
+        <v>0.03728047437221516</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2581656499.266322</v>
+        <v>2504400404.722641</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1195615962885073</v>
+        <v>0.1306935558871968</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03808466658907864</v>
+        <v>0.03656520942155714</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3019149801.110541</v>
+        <v>2798590211.101748</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1422111672696119</v>
+        <v>0.1143554864612182</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03562513900635119</v>
+        <v>0.02878484597166763</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2143423478.219723</v>
+        <v>1734096774.848251</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009645451416306</v>
+        <v>0.09637280452153409</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03946211421108037</v>
+        <v>0.05305558806786673</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2073255932.696494</v>
+        <v>1910100673.363974</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1605058464418353</v>
+        <v>0.1467369858663516</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03958641876700503</v>
+        <v>0.04235730300785807</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2638337137.296936</v>
+        <v>2405891096.080228</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09882691579877098</v>
+        <v>0.09264536269132903</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04499185458067601</v>
+        <v>0.04089954324141169</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3702402955.225773</v>
+        <v>4137546278.465023</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1001838612494813</v>
+        <v>0.1118379288021498</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03449603248540972</v>
+        <v>0.05066548612476752</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1870193746.153321</v>
+        <v>2045705696.569261</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1034835761927593</v>
+        <v>0.1484206022193519</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03757110859002511</v>
+        <v>0.02973698029321783</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2436873359.522361</v>
+        <v>3070586513.143555</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09088842130204032</v>
+        <v>0.1280866363709052</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04337497580671646</v>
+        <v>0.03555284658843431</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1482700868.026947</v>
+        <v>2321208519.635635</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1207547433322955</v>
+        <v>0.08554650348139546</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03601387648493067</v>
+        <v>0.03258947248354813</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4677977287.188653</v>
+        <v>4412692323.67449</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1641092767279133</v>
+        <v>0.1332253359056156</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02549458914918337</v>
+        <v>0.02387234316168441</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3313530973.45426</v>
+        <v>3459905865.74388</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1249192561171918</v>
+        <v>0.1243451434203577</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03179821862836219</v>
+        <v>0.02036531886791545</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2389466115.577803</v>
+        <v>3276405942.215261</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0937661839560744</v>
+        <v>0.1114946733274981</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02309540604409915</v>
+        <v>0.029567209592591</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3960618274.007165</v>
+        <v>4674288155.777181</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760089775782943</v>
+        <v>0.166419666165278</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02400577698854442</v>
+        <v>0.02014768430793314</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3164143195.865839</v>
+        <v>2219652013.113928</v>
       </c>
       <c r="F101" t="n">
-        <v>0.19867214109923</v>
+        <v>0.1509046904620025</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03586102101500149</v>
+        <v>0.04810951921681687</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_27.xlsx
+++ b/output/fit_clients/fit_round_27.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2185126656.916812</v>
+        <v>1803785962.699086</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08716378149638347</v>
+        <v>0.1107252055561332</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02894579835277689</v>
+        <v>0.03354393025291165</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1975716651.108034</v>
+        <v>1777660831.302722</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1797571165892682</v>
+        <v>0.1132812258500846</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04899587501310937</v>
+        <v>0.03194726403495145</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5069430367.06965</v>
+        <v>3330735090.841384</v>
       </c>
       <c r="F4" t="n">
-        <v>0.116010641104611</v>
+        <v>0.1504141708271893</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03775306568139956</v>
+        <v>0.02407061205906712</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>165.7668064114029</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4149076242.956313</v>
+        <v>2799654691.385333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08289798068624923</v>
+        <v>0.08071263246319225</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03952607827716095</v>
+        <v>0.04578353501039716</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K5" t="n">
+        <v>121.7437831731028</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2183234631.132861</v>
+        <v>2836399052.222939</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09486207046028476</v>
+        <v>0.1285996715607577</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05287854584199197</v>
+        <v>0.04667057486895822</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2815748512.656962</v>
+        <v>3059478167.020547</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08151273465597923</v>
+        <v>0.0806058199490315</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03637149999006853</v>
+        <v>0.04957163453458339</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2789627439.076177</v>
+        <v>3184338386.026478</v>
       </c>
       <c r="F8" t="n">
-        <v>0.179652617356062</v>
+        <v>0.2125811994554627</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03307072041996986</v>
+        <v>0.02800958587539194</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
+        <v>22</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1707932689.396049</v>
+        <v>2063443731.324868</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1337235118830102</v>
+        <v>0.1252254108943096</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03282669868929053</v>
+        <v>0.02974967088935651</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5062582214.212857</v>
+        <v>5941676180.892646</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1477202408593642</v>
+        <v>0.211481431834362</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05050472144636404</v>
+        <v>0.04178119004460118</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.8555125226526</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4097138725.636483</v>
+        <v>3118436452.279357</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1295344038387826</v>
+        <v>0.1256768785757614</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04378973876029497</v>
+        <v>0.03234460425359386</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>155.2311607211895</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2060003294.956269</v>
+        <v>2288198710.818249</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1639060036461818</v>
+        <v>0.1602666421426111</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03835876675025224</v>
+        <v>0.04851617592945409</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4288364248.079237</v>
+        <v>3571793618.007564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0632734963314619</v>
+        <v>0.08810171802260902</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02764065462025108</v>
+        <v>0.01897167532340138</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>27</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3229814211.842897</v>
+        <v>2642552451.391392</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1295273597026939</v>
+        <v>0.1165284823652137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03008424622988757</v>
+        <v>0.03634137985229317</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1651054697.408262</v>
+        <v>1422864227.357331</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07011326241126406</v>
+        <v>0.1071502405185443</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04558146658922254</v>
+        <v>0.04308972022612329</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1858230705.49118</v>
+        <v>2604305113.31856</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1105491073207471</v>
+        <v>0.07558344833951572</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03378190756251586</v>
+        <v>0.04993466299269696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3995559377.987525</v>
+        <v>3345032356.152126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.105696799675158</v>
+        <v>0.1714843505592936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04331527791011328</v>
+        <v>0.04807964569212597</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>26</v>
+      </c>
+      <c r="K17" t="n">
+        <v>153.1483415059041</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3904553313.068853</v>
+        <v>3220679782.062079</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1251731020376713</v>
+        <v>0.1522952310769436</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02840743646489252</v>
+        <v>0.02712547960189839</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894777029.4252646</v>
+        <v>909721061.4548839</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1737972146323702</v>
+        <v>0.1549562349706514</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02093205769261899</v>
+        <v>0.02008586835408507</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2264768521.977611</v>
+        <v>1912394620.816447</v>
       </c>
       <c r="F20" t="n">
-        <v>0.161105076202177</v>
+        <v>0.1261811865719347</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02288288713516429</v>
+        <v>0.02320061500286431</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2375646394.388014</v>
+        <v>2384847958.918297</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08922577777392977</v>
+        <v>0.07823207490902662</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04430330485128401</v>
+        <v>0.04001972185081668</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1205,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2594490459.796382</v>
+        <v>3235589890.45984</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09699432228473845</v>
+        <v>0.1285597557682166</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03903810899492182</v>
+        <v>0.05075456273676907</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26</v>
+      </c>
+      <c r="K22" t="n">
+        <v>136.150784324293</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1433083377.001689</v>
+        <v>1129118077.144806</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1762480847034081</v>
+        <v>0.1363811586799371</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03887327373938179</v>
+        <v>0.04836366196570925</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1277,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2567165382.476012</v>
+        <v>2769585663.811783</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09302308209940446</v>
+        <v>0.1372922784979697</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02765246663807699</v>
+        <v>0.03340175935746784</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>22</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1298479145.23018</v>
+        <v>977702823.3222879</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08268582263727042</v>
+        <v>0.1057609273927931</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03047910959826576</v>
+        <v>0.02854217099461896</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1419942228.562317</v>
+        <v>1346730600.2196</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1195832813106566</v>
+        <v>0.1174718785849312</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02607355439124114</v>
+        <v>0.03306971058297981</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3419261679.9401</v>
+        <v>3375430597.667428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1496739119427871</v>
+        <v>0.1308480394940351</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02554753027630095</v>
+        <v>0.01855002438421507</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>24</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3436678133.367071</v>
+        <v>3029701161.623883</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09853425681718291</v>
+        <v>0.1110825133420575</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03568986669130976</v>
+        <v>0.04227184776068936</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>23</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5285955577.966206</v>
+        <v>4679476212.546326</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1200978738803741</v>
+        <v>0.1206444070661495</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02840536268400344</v>
+        <v>0.04143815765759271</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="n">
+        <v>241.8670243384857</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2255870618.85569</v>
+        <v>2241867266.129475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08586417053871037</v>
+        <v>0.09165458021323193</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03724880761268252</v>
+        <v>0.03455889168743129</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1214305193.818621</v>
+        <v>1125952149.690477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09825485756139961</v>
+        <v>0.09116956677874487</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04160005998641941</v>
+        <v>0.03743965073971838</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1565,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1590463106.404653</v>
+        <v>1381386308.174871</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1012493690067594</v>
+        <v>0.07481281935873454</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02539145328966957</v>
+        <v>0.02663199810844746</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2432465326.667747</v>
+        <v>3023498265.850667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1554769168717015</v>
+        <v>0.1313031247734094</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04863952675506278</v>
+        <v>0.06013850787980053</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1635,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>975220733.0812961</v>
+        <v>1224303627.730132</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1200519802819794</v>
+        <v>0.07341611911649694</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0251060647941652</v>
+        <v>0.02395006107391762</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1041341272.904613</v>
+        <v>1124470736.217902</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1070507149180028</v>
+        <v>0.09003001539047165</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04213617091499475</v>
+        <v>0.03089226018522272</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2419337564.031226</v>
+        <v>2340022306.354377</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1651762114820118</v>
+        <v>0.1544753446613655</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02877121470879289</v>
+        <v>0.01948310287577014</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2119329025.282133</v>
+        <v>2723638325.165059</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0969939595687416</v>
+        <v>0.08928323501725693</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04111918782842478</v>
+        <v>0.04210508916766793</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1962531112.624478</v>
+        <v>1608279169.12095</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1125465371444958</v>
+        <v>0.1197810734391877</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0393374956505476</v>
+        <v>0.03321608005828707</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1669594731.66948</v>
+        <v>2102841735.785837</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1246615263382199</v>
+        <v>0.1526702232494212</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02530412631638773</v>
+        <v>0.03228837043488553</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1172560437.184127</v>
+        <v>1264809394.270865</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1067683687820512</v>
+        <v>0.148261780655022</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05158901308574634</v>
+        <v>0.03747910030345526</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2057478096.933915</v>
+        <v>2521218974.584356</v>
       </c>
       <c r="F41" t="n">
-        <v>0.147030501250353</v>
+        <v>0.1034930905755522</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03174601114359683</v>
+        <v>0.03716901991506307</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4137669705.713799</v>
+        <v>4360766507.167594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1143834600072139</v>
+        <v>0.09360017631797761</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03079652226875257</v>
+        <v>0.03131478625919724</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>8</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2989204637.401421</v>
+        <v>3020654774.894858</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1504057328806248</v>
+        <v>0.1564826682085639</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02536623644599616</v>
+        <v>0.01903172603929011</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1660832636.030062</v>
+        <v>1576494202.280715</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0698924784215022</v>
+        <v>0.09018110469243526</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03441744346489501</v>
+        <v>0.02533194857065486</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2270303527.988862</v>
+        <v>2368500921.546558</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1493276874744039</v>
+        <v>0.1327190285464073</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03572493564837204</v>
+        <v>0.05449002141849211</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2055,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5625919754.354756</v>
+        <v>3971160918.438161</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1690965453424614</v>
+        <v>0.1495944034453105</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04233783983342439</v>
+        <v>0.03851353988104213</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>15</v>
+      </c>
+      <c r="J46" t="n">
+        <v>27</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3472180330.366006</v>
+        <v>5055131636.043713</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1696337651251153</v>
+        <v>0.1614821493051193</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04303136129512901</v>
+        <v>0.03845909211913884</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
+        <v>26</v>
+      </c>
+      <c r="K47" t="n">
+        <v>186.5271398476274</v>
       </c>
     </row>
     <row r="48">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3345207145.876821</v>
+        <v>3501241040.411193</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09156487169022083</v>
+        <v>0.06702705427685911</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03921164426522144</v>
+        <v>0.03337907051459554</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>8</v>
+      </c>
+      <c r="J48" t="n">
+        <v>27</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1444524073.232425</v>
+        <v>1381016409.199451</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1195639975451789</v>
+        <v>0.157423644173548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03217098952520266</v>
+        <v>0.04469327543707825</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3266296811.282682</v>
+        <v>3211489439.559388</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1700219084424839</v>
+        <v>0.1126870202067021</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03655988724176366</v>
+        <v>0.03712628716759746</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>25</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1139127208.695754</v>
+        <v>1210919883.34842</v>
       </c>
       <c r="F51" t="n">
-        <v>0.144779767749721</v>
+        <v>0.1964460485145242</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04197080074575388</v>
+        <v>0.03404190586278577</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3233455098.208441</v>
+        <v>5154409185.396568</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1185766385484052</v>
+        <v>0.08676359052235751</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03907173325080778</v>
+        <v>0.04638986950230801</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" t="n">
+        <v>27</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.3572343978467</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3295357151.631549</v>
+        <v>3665821840.327075</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1668595545159447</v>
+        <v>0.1433722291484529</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02842579236329014</v>
+        <v>0.02518420498230098</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3318316329.249834</v>
+        <v>3454756336.878883</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1526173974249114</v>
+        <v>0.1674256231216415</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03775271341565966</v>
+        <v>0.04603514608210867</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>12</v>
+      </c>
+      <c r="J54" t="n">
+        <v>26</v>
+      </c>
+      <c r="K54" t="n">
+        <v>173.7685200730822</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3344196381.748314</v>
+        <v>4610071958.970003</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2149552353060635</v>
+        <v>0.1805809718158599</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0314787884594688</v>
+        <v>0.0289595599263557</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1457404823.306272</v>
+        <v>1864393505.746836</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1269569148297929</v>
+        <v>0.1189764314210274</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04452328683506292</v>
+        <v>0.0440647981530006</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3770151137.936485</v>
+        <v>2768379616.133295</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1766254224297985</v>
+        <v>0.1836495805195052</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01719687379751158</v>
+        <v>0.02757638396957055</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1855192528.623466</v>
+        <v>1196395221.781436</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1281222784996607</v>
+        <v>0.1729730055143734</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02673611843704607</v>
+        <v>0.02931524440647573</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5382845809.699039</v>
+        <v>4664030645.90268</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09255917488666902</v>
+        <v>0.1033537959570305</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03836473160086332</v>
+        <v>0.04121247728043385</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>26</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.8735844118276</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3728425134.625152</v>
+        <v>3700432734.118294</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1395558386841702</v>
+        <v>0.1799727248918472</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02823793468182644</v>
+        <v>0.03290539048535568</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2164948460.326925</v>
+        <v>2046598627.259583</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1623516356131659</v>
+        <v>0.1503209015056747</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02462353850332924</v>
+        <v>0.02173382183131543</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1437348114.768577</v>
+        <v>1275196451.525843</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1207731732876665</v>
+        <v>0.1681690971664661</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0473347735487677</v>
+        <v>0.04408670167567551</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4988958242.978863</v>
+        <v>4055950257.357502</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09227659493042127</v>
+        <v>0.08845383279901051</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03357451557047293</v>
+        <v>0.03913933009814975</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>26</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.1842702043205</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5551312648.862852</v>
+        <v>4627594178.222095</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1656584474869842</v>
+        <v>0.1736099568071589</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03068743443770409</v>
+        <v>0.02265485239019554</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>13</v>
+      </c>
+      <c r="J64" t="n">
+        <v>27</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4161724521.314961</v>
+        <v>5920446667.29147</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1512516267681344</v>
+        <v>0.1410473852495415</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02238179956556345</v>
+        <v>0.02875597056798941</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>27</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.3208346232185</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3746311253.715888</v>
+        <v>3742464274.090191</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1251955755409776</v>
+        <v>0.1176612774083628</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03883552192897471</v>
+        <v>0.03859506788669912</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>27</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2296995429.307772</v>
+        <v>2242712724.55079</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08503048234443383</v>
+        <v>0.09253070923610116</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03441570978521163</v>
+        <v>0.05150919627151462</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5531241076.630871</v>
+        <v>5375738329.74816</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1267797002635121</v>
+        <v>0.1343148182257352</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04686338012379124</v>
+        <v>0.0315741157628632</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>13</v>
+      </c>
+      <c r="J68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1644242296.275616</v>
+        <v>2332274386.916221</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1492474704770231</v>
+        <v>0.1774052180610406</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05711825240543746</v>
+        <v>0.03939120448695409</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3443649487.452818</v>
+        <v>3493794008.844597</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07344605349852749</v>
+        <v>0.06735411933034276</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03188610399817603</v>
+        <v>0.04878597959568674</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4928584303.074606</v>
+        <v>4655387011.926817</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1123619638582198</v>
+        <v>0.1845586306045843</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03325634037182179</v>
+        <v>0.02708375909727333</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>21</v>
+      </c>
+      <c r="J71" t="n">
+        <v>27</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.3796243310968</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1546271158.591831</v>
+        <v>1839796199.308547</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07235039404786191</v>
+        <v>0.09017394078156094</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04785129158085167</v>
+        <v>0.03826213358308771</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3142904390.962796</v>
+        <v>2294455765.620425</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09882702796084036</v>
+        <v>0.08714388462870232</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03915302282326218</v>
+        <v>0.04011299740698136</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>11</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3115012503.600083</v>
+        <v>3800489798.919967</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1372796654582304</v>
+        <v>0.1237696453148504</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0228697992000452</v>
+        <v>0.03379265639208501</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>8</v>
+      </c>
+      <c r="J74" t="n">
+        <v>26</v>
+      </c>
+      <c r="K74" t="n">
+        <v>212.9124901315802</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2483157378.634635</v>
+        <v>1837555467.163851</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087069645696023</v>
+        <v>0.1105269112010915</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02823398318516325</v>
+        <v>0.02527879537228392</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4099224200.724065</v>
+        <v>3387261634.797609</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07836659501913494</v>
+        <v>0.09161207608430191</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02877446025974464</v>
+        <v>0.02478828753232154</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>27</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2099933295.991476</v>
+        <v>1422576424.484761</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1376478074701559</v>
+        <v>0.1250603269503552</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02234953396449071</v>
+        <v>0.02608452118327228</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4171072993.689429</v>
+        <v>3386685758.179736</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1017387658106121</v>
+        <v>0.08654226345850601</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05351303931864325</v>
+        <v>0.03706809916175844</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>26</v>
+      </c>
+      <c r="K78" t="n">
+        <v>169.7261739196219</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1472136858.930549</v>
+        <v>1682428225.45097</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1511213310712051</v>
+        <v>0.1132707650153708</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03848417131690222</v>
+        <v>0.02581647227298558</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4646523579.498425</v>
+        <v>5627340292.457882</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08491063455282838</v>
+        <v>0.1062197207141529</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03319901337416644</v>
+        <v>0.02912942137672633</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>26</v>
+      </c>
+      <c r="K80" t="n">
+        <v>168.5018964514595</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3939750893.166368</v>
+        <v>3257159864.77165</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08975486929105396</v>
+        <v>0.1220253965101521</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02724833656408955</v>
+        <v>0.02199150030955851</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>12</v>
+      </c>
+      <c r="J81" t="n">
+        <v>25</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5392627328.684402</v>
+        <v>4126695716.392752</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1388130686482023</v>
+        <v>0.2072171437003836</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01839490050730614</v>
+        <v>0.02822593304076849</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14</v>
+      </c>
+      <c r="J82" t="n">
+        <v>26</v>
+      </c>
+      <c r="K82" t="n">
+        <v>214.1867457848389</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2360947631.360668</v>
+        <v>1750966862.428412</v>
       </c>
       <c r="F83" t="n">
-        <v>0.139881948925326</v>
+        <v>0.1174668092665307</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04149767575483172</v>
+        <v>0.03258204142709232</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2526270250.395735</v>
+        <v>1963012590.561443</v>
       </c>
       <c r="F84" t="n">
-        <v>0.119655898262003</v>
+        <v>0.09361358723901624</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04301075874606417</v>
+        <v>0.0411408284806369</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3059311976.976633</v>
+        <v>3391977930.90951</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1197654820593338</v>
+        <v>0.1830343243847802</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03702419989044452</v>
+        <v>0.05433213430361616</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1994266077.690667</v>
+        <v>2143872457.990221</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1344469723699221</v>
+        <v>0.167256344063625</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01852946629696972</v>
+        <v>0.02599303491741142</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1497481924.604908</v>
+        <v>1397191969.333281</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1876780474657337</v>
+        <v>0.1506390275292357</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03728047437221516</v>
+        <v>0.03517723868161646</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2504400404.722641</v>
+        <v>2865141719.769839</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1306935558871968</v>
+        <v>0.1645729523408849</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03656520942155714</v>
+        <v>0.0282512152735015</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2798590211.101748</v>
+        <v>2850013245.255582</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1143554864612182</v>
+        <v>0.1098763267808076</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02878484597166763</v>
+        <v>0.03219122031174948</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>17</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1734096774.848251</v>
+        <v>1998639231.064771</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09637280452153409</v>
+        <v>0.09561327497971735</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05305558806786673</v>
+        <v>0.04377602072854729</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1910100673.363974</v>
+        <v>1795089037.1153</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1467369858663516</v>
+        <v>0.1576572520493095</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04235730300785807</v>
+        <v>0.05641415237898219</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2405891096.080228</v>
+        <v>2104520308.723718</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09264536269132903</v>
+        <v>0.07700562718400608</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04089954324141169</v>
+        <v>0.03381287039055713</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4137546278.465023</v>
+        <v>3391905550.060086</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1118379288021498</v>
+        <v>0.1389291663800245</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05066548612476752</v>
+        <v>0.05075747613455351</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>11</v>
+      </c>
+      <c r="J93" t="n">
+        <v>27</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2045705696.569261</v>
+        <v>1952655058.854065</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1484206022193519</v>
+        <v>0.1195307691662234</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02973698029321783</v>
+        <v>0.03964488498519465</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3070586513.143555</v>
+        <v>2479005154.563063</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1280866363709052</v>
+        <v>0.1044190381462411</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03555284658843431</v>
+        <v>0.05219792814463078</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2321208519.635635</v>
+        <v>1693930533.902978</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08554650348139546</v>
+        <v>0.102480005160886</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03258947248354813</v>
+        <v>0.03773988310966954</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4412692323.67449</v>
+        <v>3652137729.110011</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1332253359056156</v>
+        <v>0.1324535204603528</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02387234316168441</v>
+        <v>0.02417857348788139</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13</v>
+      </c>
+      <c r="J97" t="n">
+        <v>26</v>
+      </c>
+      <c r="K97" t="n">
+        <v>193.4301750746741</v>
       </c>
     </row>
     <row r="98">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3459905865.74388</v>
+        <v>3102680737.398715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1243451434203577</v>
+        <v>0.08549884108065965</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02036531886791545</v>
+        <v>0.01992351081306205</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>26</v>
+      </c>
+      <c r="K98" t="n">
+        <v>123.9797185104003</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3276405942.215261</v>
+        <v>2469324019.238626</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1114946733274981</v>
+        <v>0.1143079946589434</v>
       </c>
       <c r="G99" t="n">
-        <v>0.029567209592591</v>
+        <v>0.03130907046756042</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4674288155.777181</v>
+        <v>4661669706.611548</v>
       </c>
       <c r="F100" t="n">
-        <v>0.166419666165278</v>
+        <v>0.1556855480502208</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02014768430793314</v>
+        <v>0.01731044779341953</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>12</v>
+      </c>
+      <c r="J100" t="n">
+        <v>27</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2219652013.113928</v>
+        <v>2193788915.017987</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1509046904620025</v>
+        <v>0.2158313848632095</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04810951921681687</v>
+        <v>0.04071218388668275</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
